--- a/tools/convert_excel/model-01/model.xlsx
+++ b/tools/convert_excel/model-01/model.xlsx
@@ -5,68 +5,158 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="concepts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="concepts_2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="model" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="model" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="packages" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="concepts" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="elements" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="structures" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.google.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.cnn.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONE TWO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">model name</t>
+    <t xml:space="preserve">summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gh_issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model default summary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model default description.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated for concept:Thing
+Generated for element:hasThing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing summary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing description.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ShahimEssaid/ccdh-model/issues/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had it's package package generated.
+Updated GH label from: Thing:C:default, Thing summary edited again 4., fef2c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasThing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasThing summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasThing description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had it's package package generated.
+Parent ref was not resolvable.
+domain_concepts: was updated to:
+range_concepts: was updated to:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestStruct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_self_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -91,6 +181,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -143,15 +240,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,78 +269,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.99"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="str">
-        <f aca="false">HYPERLINK("https://www.google.com")</f>
-        <v>https://www.google.com</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="http://www.cnn.com/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -253,75 +342,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="39.05"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="str">
-        <f aca="false">HYPERLINK("https://www.google.com")</f>
-        <v>https://www.google.com</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="http://www.cnn.com/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -331,31 +414,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="63.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="63.03"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://github.com/ShahimEssaid/ccdh-model/issues/12"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -365,20 +510,229 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="44.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="1" style="1" width="11.8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>